--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Artn-Gfra3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Artn-Gfra3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Artn</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -537,10 +540,10 @@
         <v>2.210625</v>
       </c>
       <c r="I2">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="J2">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.54289</v>
+        <v>0.4802803333333334</v>
       </c>
       <c r="N2">
-        <v>1.62867</v>
+        <v>1.440841</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.40004206875</v>
+        <v>0.353906570625</v>
       </c>
       <c r="R2">
-        <v>3.600378618749999</v>
+        <v>3.185159135625</v>
       </c>
       <c r="S2">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
       <c r="T2">
-        <v>0.7580771545508633</v>
+        <v>0.5924430993326582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2351566666666667</v>
+        <v>0.3936963333333334</v>
       </c>
       <c r="H3">
-        <v>0.70547</v>
+        <v>1.181089</v>
       </c>
       <c r="I3">
-        <v>0.2419228454491366</v>
+        <v>0.3165295008188679</v>
       </c>
       <c r="J3">
-        <v>0.2419228454491366</v>
+        <v>0.3165295008188679</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.54289</v>
+        <v>0.4802803333333334</v>
       </c>
       <c r="N3">
-        <v>1.62867</v>
+        <v>1.440841</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -623,16 +626,78 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1276642027666667</v>
+        <v>0.1890846062054445</v>
       </c>
       <c r="R3">
-        <v>1.1489778249</v>
+        <v>1.701761455849</v>
       </c>
       <c r="S3">
-        <v>0.2419228454491366</v>
+        <v>0.3165295008188679</v>
       </c>
       <c r="T3">
-        <v>0.2419228454491366</v>
+        <v>0.3165295008188679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.113219</v>
+      </c>
+      <c r="H4">
+        <v>0.339657</v>
+      </c>
+      <c r="I4">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="J4">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.4802803333333334</v>
+      </c>
+      <c r="N4">
+        <v>1.440841</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0.05437685905966667</v>
+      </c>
+      <c r="R4">
+        <v>0.489391731537</v>
+      </c>
+      <c r="S4">
+        <v>0.09102739984847392</v>
+      </c>
+      <c r="T4">
+        <v>0.09102739984847392</v>
       </c>
     </row>
   </sheetData>
